--- a/Old/icd10-procedure-codes-020619.xlsx
+++ b/Old/icd10-procedure-codes-020619.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arin/Dropbox (Personal)/GRANTS/Madenci_F32_2018/Articles/Medicare-Codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arin/Dropbox (Partners HealthCare)/Research/Codes/Old/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12020" yWindow="460" windowWidth="16780" windowHeight="17540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="12020" yWindow="460" windowWidth="16780" windowHeight="17540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="cea" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="142">
   <si>
     <t>code</t>
   </si>
@@ -461,22 +461,17 @@
   </si>
   <si>
     <t>laparoscopic pancreas resection</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -534,32 +529,31 @@
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1105,7 +1099,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B4" t="s">
@@ -1113,7 +1107,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
@@ -1121,7 +1115,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
@@ -1129,7 +1123,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B7" t="s">
@@ -1137,7 +1131,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B8" t="s">
@@ -1145,7 +1139,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B9" t="s">
@@ -1169,7 +1163,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B12" t="s">
@@ -1177,7 +1171,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B13" t="s">
@@ -1185,7 +1179,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
@@ -1193,7 +1187,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B15" t="s">
@@ -1201,7 +1195,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B16" t="s">
@@ -1209,7 +1203,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B17" t="s">
@@ -1233,7 +1227,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B20" t="s">
@@ -1249,7 +1243,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B22" t="s">
@@ -1297,7 +1291,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B28" t="s">
@@ -1313,7 +1307,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B30" t="s">
@@ -1361,7 +1355,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B36" t="s">
@@ -1377,7 +1371,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B38" t="s">
@@ -1425,7 +1419,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B44" t="s">
@@ -1441,7 +1435,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B46" t="s">
@@ -1489,7 +1483,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B52" t="s">
@@ -1505,7 +1499,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B54" t="s">
@@ -1553,7 +1547,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
@@ -1569,7 +1563,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B62" t="s">
@@ -1617,7 +1611,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B68" t="s">
@@ -1633,7 +1627,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B70" t="s">
@@ -1814,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1846,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1857,7 +1851,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,24 +1859,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
